--- a/downloaded_files/EECS102_Lecture-35283.xlsx
+++ b/downloaded_files/EECS102_Lecture-35283.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -145,6 +145,24 @@
   </x:si>
   <x:si>
     <x:t>Shahd Waleed Sayed Mahmoud</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250178</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن سيد عبدالرحيم احمد عطية</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdul Rahman Sayed Abdul Rahim Ahmed Attia</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250180</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالله فريد عبدالله محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdullah Farid Abdullah Mohammed</x:t>
   </x:si>
   <x:si>
     <x:t>1240093</x:t>
@@ -494,7 +512,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E40" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E42" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -794,7 +812,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T40"/>
+  <x:dimension ref="A1:T42"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -804,7 +822,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="34.420625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="50.930625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -1299,7 +1317,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6659865394</x:v>
+        <x:v>45921.6074469097</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1331,7 +1349,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6648382292</x:v>
+        <x:v>45921.614566169</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1363,7 +1381,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6662009259</x:v>
+        <x:v>45907.6659865394</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1395,7 +1413,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6650371528</x:v>
+        <x:v>45907.6648382292</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1427,7 +1445,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6662529745</x:v>
+        <x:v>45907.6662009259</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1459,7 +1477,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.666205787</x:v>
+        <x:v>45907.6650371528</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1491,7 +1509,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.665975463</x:v>
+        <x:v>45907.6662529745</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1523,7 +1541,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6655778935</x:v>
+        <x:v>45907.666205787</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1555,7 +1573,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6670297106</x:v>
+        <x:v>45907.665975463</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1587,7 +1605,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6649868866</x:v>
+        <x:v>45907.6655778935</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1619,7 +1637,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6659381134</x:v>
+        <x:v>45907.6670297106</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1651,7 +1669,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6651053241</x:v>
+        <x:v>45907.6649868866</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1683,7 +1701,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6652144676</x:v>
+        <x:v>45907.6659381134</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1715,7 +1733,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6673467245</x:v>
+        <x:v>45907.6651053241</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1747,7 +1765,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6658883449</x:v>
+        <x:v>45907.6652144676</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1779,7 +1797,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6650548611</x:v>
+        <x:v>45907.6673467245</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1811,7 +1829,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6646738426</x:v>
+        <x:v>45907.6658883449</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1843,7 +1861,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6646261227</x:v>
+        <x:v>45907.6650548611</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1875,7 +1893,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6669941782</x:v>
+        <x:v>45907.6646738426</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1907,7 +1925,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6658079861</x:v>
+        <x:v>45907.6646261227</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1939,7 +1957,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.6658175579</x:v>
+        <x:v>45907.6669941782</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1971,7 +1989,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.6652498495</x:v>
+        <x:v>45907.6658079861</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2003,7 +2021,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.666621412</x:v>
+        <x:v>45907.6658175579</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2035,7 +2053,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.6660113079</x:v>
+        <x:v>45907.6652498495</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2067,7 +2085,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.6650471065</x:v>
+        <x:v>45907.666621412</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2099,7 +2117,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.6665474537</x:v>
+        <x:v>45907.6660113079</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2116,6 +2134,70 @@
       <x:c r="R40" s="2" t="s"/>
       <x:c r="S40" s="2" t="s"/>
       <x:c r="T40" s="2" t="s"/>
+    </x:row>
+    <x:row r="41" spans="1:20">
+      <x:c r="A41" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B41" s="2" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="C41" s="2" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="D41" s="2" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="E41" s="3">
+        <x:v>45907.6650471065</x:v>
+      </x:c>
+      <x:c r="F41" s="2" t="s"/>
+      <x:c r="G41" s="2" t="s"/>
+      <x:c r="H41" s="2" t="s"/>
+      <x:c r="I41" s="2" t="s"/>
+      <x:c r="J41" s="2" t="s"/>
+      <x:c r="K41" s="2" t="s"/>
+      <x:c r="L41" s="2" t="s"/>
+      <x:c r="M41" s="2" t="s"/>
+      <x:c r="N41" s="2" t="s"/>
+      <x:c r="O41" s="2" t="s"/>
+      <x:c r="P41" s="2" t="s"/>
+      <x:c r="Q41" s="2" t="s"/>
+      <x:c r="R41" s="2" t="s"/>
+      <x:c r="S41" s="2" t="s"/>
+      <x:c r="T41" s="2" t="s"/>
+    </x:row>
+    <x:row r="42" spans="1:20">
+      <x:c r="A42" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B42" s="2" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="C42" s="2" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="D42" s="2" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="E42" s="3">
+        <x:v>45907.6665474537</x:v>
+      </x:c>
+      <x:c r="F42" s="2" t="s"/>
+      <x:c r="G42" s="2" t="s"/>
+      <x:c r="H42" s="2" t="s"/>
+      <x:c r="I42" s="2" t="s"/>
+      <x:c r="J42" s="2" t="s"/>
+      <x:c r="K42" s="2" t="s"/>
+      <x:c r="L42" s="2" t="s"/>
+      <x:c r="M42" s="2" t="s"/>
+      <x:c r="N42" s="2" t="s"/>
+      <x:c r="O42" s="2" t="s"/>
+      <x:c r="P42" s="2" t="s"/>
+      <x:c r="Q42" s="2" t="s"/>
+      <x:c r="R42" s="2" t="s"/>
+      <x:c r="S42" s="2" t="s"/>
+      <x:c r="T42" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS102_Lecture-35283.xlsx
+++ b/downloaded_files/EECS102_Lecture-35283.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -31,6 +31,15 @@
   </x:si>
   <x:si>
     <x:t>Date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250161</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ابراهيم حسن كامل احمد قاسم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ibrahim Hassan Kamel Ahmed Qasim</x:t>
   </x:si>
   <x:si>
     <x:t>1240005</x:t>
@@ -512,7 +521,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E42" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E43" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -812,7 +821,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T42"/>
+  <x:dimension ref="A1:T43"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -903,7 +912,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45907.6661513542</x:v>
+        <x:v>45922.3696577546</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -935,7 +944,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45907.6649923264</x:v>
+        <x:v>45907.6661513542</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -967,7 +976,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.6658420486</x:v>
+        <x:v>45907.6649923264</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -999,7 +1008,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.6677021181</x:v>
+        <x:v>45907.6658420486</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -1031,7 +1040,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.6651261574</x:v>
+        <x:v>45907.6677021181</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1063,7 +1072,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.665459456</x:v>
+        <x:v>45907.6651261574</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1095,7 +1104,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.6666383449</x:v>
+        <x:v>45907.665459456</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1127,7 +1136,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6662652778</x:v>
+        <x:v>45907.6666383449</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1159,7 +1168,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6659533565</x:v>
+        <x:v>45907.6662652778</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1191,7 +1200,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6651474537</x:v>
+        <x:v>45907.6659533565</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1219,9 +1228,11 @@
       <x:c r="C12" s="2" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="D12" s="2" t="s"/>
+      <x:c r="D12" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6648420486</x:v>
+        <x:v>45907.6651474537</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1244,16 +1255,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="D13" s="2" t="s">
         <x:v>39</x:v>
       </x:c>
+      <x:c r="D13" s="2" t="s"/>
       <x:c r="E13" s="3">
-        <x:v>45907.6655566319</x:v>
+        <x:v>45907.6648420486</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1285,7 +1294,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6655027431</x:v>
+        <x:v>45907.6655566319</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1317,7 +1326,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45921.6074469097</x:v>
+        <x:v>45907.6655027431</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1349,7 +1358,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45921.614566169</x:v>
+        <x:v>45921.6074469097</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1381,7 +1390,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6659865394</x:v>
+        <x:v>45921.614566169</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1413,7 +1422,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6648382292</x:v>
+        <x:v>45907.6659865394</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1445,7 +1454,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6662009259</x:v>
+        <x:v>45907.6648382292</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1477,7 +1486,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6650371528</x:v>
+        <x:v>45907.6662009259</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1509,7 +1518,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6662529745</x:v>
+        <x:v>45907.6650371528</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1541,7 +1550,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.666205787</x:v>
+        <x:v>45907.6662529745</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1573,7 +1582,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.665975463</x:v>
+        <x:v>45907.666205787</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1605,7 +1614,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6655778935</x:v>
+        <x:v>45907.665975463</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1637,7 +1646,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6670297106</x:v>
+        <x:v>45907.6655778935</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1669,7 +1678,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6649868866</x:v>
+        <x:v>45907.6670297106</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1701,7 +1710,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6659381134</x:v>
+        <x:v>45907.6649868866</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1733,7 +1742,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6651053241</x:v>
+        <x:v>45907.6659381134</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1765,7 +1774,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6652144676</x:v>
+        <x:v>45907.6651053241</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1797,7 +1806,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6673467245</x:v>
+        <x:v>45907.6652144676</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1829,7 +1838,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6658883449</x:v>
+        <x:v>45907.6673467245</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1861,7 +1870,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6650548611</x:v>
+        <x:v>45907.6658883449</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1893,7 +1902,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6646738426</x:v>
+        <x:v>45907.6650548611</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1925,7 +1934,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6646261227</x:v>
+        <x:v>45907.6646738426</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1957,7 +1966,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.6669941782</x:v>
+        <x:v>45907.6646261227</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1989,7 +1998,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.6658079861</x:v>
+        <x:v>45907.6669941782</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2021,7 +2030,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.6658175579</x:v>
+        <x:v>45907.6658079861</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2053,7 +2062,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.6652498495</x:v>
+        <x:v>45907.6658175579</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2085,7 +2094,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.666621412</x:v>
+        <x:v>45907.6652498495</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2117,7 +2126,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.6660113079</x:v>
+        <x:v>45907.666621412</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2149,7 +2158,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.6650471065</x:v>
+        <x:v>45907.6660113079</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2181,7 +2190,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45907.6665474537</x:v>
+        <x:v>45907.6650471065</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2198,6 +2207,38 @@
       <x:c r="R42" s="2" t="s"/>
       <x:c r="S42" s="2" t="s"/>
       <x:c r="T42" s="2" t="s"/>
+    </x:row>
+    <x:row r="43" spans="1:20">
+      <x:c r="A43" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B43" s="2" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="C43" s="2" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="D43" s="2" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="E43" s="3">
+        <x:v>45907.6665474537</x:v>
+      </x:c>
+      <x:c r="F43" s="2" t="s"/>
+      <x:c r="G43" s="2" t="s"/>
+      <x:c r="H43" s="2" t="s"/>
+      <x:c r="I43" s="2" t="s"/>
+      <x:c r="J43" s="2" t="s"/>
+      <x:c r="K43" s="2" t="s"/>
+      <x:c r="L43" s="2" t="s"/>
+      <x:c r="M43" s="2" t="s"/>
+      <x:c r="N43" s="2" t="s"/>
+      <x:c r="O43" s="2" t="s"/>
+      <x:c r="P43" s="2" t="s"/>
+      <x:c r="Q43" s="2" t="s"/>
+      <x:c r="R43" s="2" t="s"/>
+      <x:c r="S43" s="2" t="s"/>
+      <x:c r="T43" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS102_Lecture-35283.xlsx
+++ b/downloaded_files/EECS102_Lecture-35283.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -78,15 +78,6 @@
     <x:t>Adham Mohamed Sherif</x:t>
   </x:si>
   <x:si>
-    <x:t>1240030</x:t>
-  </x:si>
-  <x:si>
-    <x:t>اواب تامر ذكريا المغازى الشهاوى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ِAwab Tamer Zakaria</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240033</x:t>
   </x:si>
   <x:si>
@@ -123,6 +114,15 @@
     <x:t>Rana Tarek Ahmed Shawky</x:t>
   </x:si>
   <x:si>
+    <x:t>4250173</x:t>
+  </x:si>
+  <x:si>
+    <x:t>زياد سعد محمد موسى احمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ziad Saad</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240224</x:t>
   </x:si>
   <x:si>
@@ -136,6 +136,15 @@
   </x:si>
   <x:si>
     <x:t xml:space="preserve">سعيد احمد سعيد خطاب محمد </x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240069</x:t>
+  </x:si>
+  <x:si>
+    <x:t>سلمى الحسيني محمد عادل محمد الحسيني</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Salma Elhoseny mohammed Adel Elhoseny</x:t>
   </x:si>
   <x:si>
     <x:t>1240074</x:t>
@@ -521,7 +530,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E43" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E44" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -821,7 +830,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T43"/>
+  <x:dimension ref="A1:T44"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1072,7 +1081,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.6651261574</x:v>
+        <x:v>45907.665459456</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1104,7 +1113,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.665459456</x:v>
+        <x:v>45907.6666383449</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1136,7 +1145,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6666383449</x:v>
+        <x:v>45907.6662652778</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1168,7 +1177,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6662652778</x:v>
+        <x:v>45907.6659533565</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1200,7 +1209,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6659533565</x:v>
+        <x:v>45923.4748417824</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1294,7 +1303,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6655566319</x:v>
+        <x:v>45914.5370814815</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1326,7 +1335,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6655027431</x:v>
+        <x:v>45907.6655566319</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1358,7 +1367,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45921.6074469097</x:v>
+        <x:v>45907.6655027431</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1390,7 +1399,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45921.614566169</x:v>
+        <x:v>45921.6074469097</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1422,7 +1431,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6659865394</x:v>
+        <x:v>45921.614566169</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1454,7 +1463,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6648382292</x:v>
+        <x:v>45907.6659865394</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1486,7 +1495,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6662009259</x:v>
+        <x:v>45907.6648382292</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1518,7 +1527,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6650371528</x:v>
+        <x:v>45907.6662009259</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1550,7 +1559,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6662529745</x:v>
+        <x:v>45907.6650371528</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1582,7 +1591,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.666205787</x:v>
+        <x:v>45907.6662529745</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1614,7 +1623,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.665975463</x:v>
+        <x:v>45907.666205787</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1646,7 +1655,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6655778935</x:v>
+        <x:v>45907.665975463</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1678,7 +1687,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6670297106</x:v>
+        <x:v>45907.6655778935</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1710,7 +1719,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6649868866</x:v>
+        <x:v>45907.6670297106</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1742,7 +1751,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6659381134</x:v>
+        <x:v>45907.6649868866</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1774,7 +1783,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6651053241</x:v>
+        <x:v>45907.6659381134</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1806,7 +1815,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6652144676</x:v>
+        <x:v>45907.6651053241</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1838,7 +1847,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6673467245</x:v>
+        <x:v>45907.6652144676</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1870,7 +1879,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6658883449</x:v>
+        <x:v>45907.6673467245</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1902,7 +1911,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6650548611</x:v>
+        <x:v>45907.6658883449</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1934,7 +1943,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6646738426</x:v>
+        <x:v>45907.6650548611</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1966,7 +1975,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.6646261227</x:v>
+        <x:v>45907.6646738426</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1998,7 +2007,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.6669941782</x:v>
+        <x:v>45907.6646261227</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2030,7 +2039,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.6658079861</x:v>
+        <x:v>45907.6669941782</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2062,7 +2071,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.6658175579</x:v>
+        <x:v>45907.6658079861</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2094,7 +2103,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.6652498495</x:v>
+        <x:v>45907.6658175579</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2126,7 +2135,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.666621412</x:v>
+        <x:v>45907.6652498495</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2158,7 +2167,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.6660113079</x:v>
+        <x:v>45907.666621412</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2190,7 +2199,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45907.6650471065</x:v>
+        <x:v>45907.6660113079</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2222,7 +2231,7 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45907.6665474537</x:v>
+        <x:v>45907.6650471065</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2239,6 +2248,38 @@
       <x:c r="R43" s="2" t="s"/>
       <x:c r="S43" s="2" t="s"/>
       <x:c r="T43" s="2" t="s"/>
+    </x:row>
+    <x:row r="44" spans="1:20">
+      <x:c r="A44" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B44" s="2" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="C44" s="2" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="D44" s="2" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="E44" s="3">
+        <x:v>45907.6665474537</x:v>
+      </x:c>
+      <x:c r="F44" s="2" t="s"/>
+      <x:c r="G44" s="2" t="s"/>
+      <x:c r="H44" s="2" t="s"/>
+      <x:c r="I44" s="2" t="s"/>
+      <x:c r="J44" s="2" t="s"/>
+      <x:c r="K44" s="2" t="s"/>
+      <x:c r="L44" s="2" t="s"/>
+      <x:c r="M44" s="2" t="s"/>
+      <x:c r="N44" s="2" t="s"/>
+      <x:c r="O44" s="2" t="s"/>
+      <x:c r="P44" s="2" t="s"/>
+      <x:c r="Q44" s="2" t="s"/>
+      <x:c r="R44" s="2" t="s"/>
+      <x:c r="S44" s="2" t="s"/>
+      <x:c r="T44" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS102_Lecture-35283.xlsx
+++ b/downloaded_files/EECS102_Lecture-35283.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -172,6 +172,15 @@
   </x:si>
   <x:si>
     <x:t>Abdul Rahman Sayed Abdul Rahim Ahmed Attia</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240237</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالله أحمد محمد هشام مهنا</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdallah Ahmed Mohammed Hesham</x:t>
   </x:si>
   <x:si>
     <x:t>4250180</x:t>
@@ -530,7 +539,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E44" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E45" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -830,7 +839,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T44"/>
+  <x:dimension ref="A1:T45"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1431,7 +1440,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45921.614566169</x:v>
+        <x:v>45924.0106898495</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1463,7 +1472,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6659865394</x:v>
+        <x:v>45921.614566169</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1495,7 +1504,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6648382292</x:v>
+        <x:v>45907.6659865394</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1527,7 +1536,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6662009259</x:v>
+        <x:v>45907.6648382292</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1559,7 +1568,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6650371528</x:v>
+        <x:v>45907.6662009259</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1591,7 +1600,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6662529745</x:v>
+        <x:v>45907.6650371528</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1623,7 +1632,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.666205787</x:v>
+        <x:v>45907.6662529745</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1655,7 +1664,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.665975463</x:v>
+        <x:v>45907.666205787</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1687,7 +1696,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6655778935</x:v>
+        <x:v>45907.665975463</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1719,7 +1728,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6670297106</x:v>
+        <x:v>45907.6655778935</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1751,7 +1760,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6649868866</x:v>
+        <x:v>45907.6670297106</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1783,7 +1792,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6659381134</x:v>
+        <x:v>45907.6649868866</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1815,7 +1824,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6651053241</x:v>
+        <x:v>45907.6659381134</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1847,7 +1856,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6652144676</x:v>
+        <x:v>45907.6651053241</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1879,7 +1888,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6673467245</x:v>
+        <x:v>45907.6652144676</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1911,7 +1920,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6658883449</x:v>
+        <x:v>45907.6673467245</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1943,7 +1952,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6650548611</x:v>
+        <x:v>45907.6658883449</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1975,7 +1984,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.6646738426</x:v>
+        <x:v>45907.6650548611</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2007,7 +2016,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.6646261227</x:v>
+        <x:v>45907.6646738426</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2039,7 +2048,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.6669941782</x:v>
+        <x:v>45907.6646261227</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2071,7 +2080,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.6658079861</x:v>
+        <x:v>45907.6669941782</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2103,7 +2112,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.6658175579</x:v>
+        <x:v>45907.6658079861</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2135,7 +2144,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.6652498495</x:v>
+        <x:v>45907.6658175579</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2167,7 +2176,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.666621412</x:v>
+        <x:v>45907.6652498495</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2199,7 +2208,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45907.6660113079</x:v>
+        <x:v>45907.666621412</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2231,7 +2240,7 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45907.6650471065</x:v>
+        <x:v>45907.6660113079</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2263,7 +2272,7 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45907.6665474537</x:v>
+        <x:v>45907.6650471065</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2280,6 +2289,38 @@
       <x:c r="R44" s="2" t="s"/>
       <x:c r="S44" s="2" t="s"/>
       <x:c r="T44" s="2" t="s"/>
+    </x:row>
+    <x:row r="45" spans="1:20">
+      <x:c r="A45" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B45" s="2" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="C45" s="2" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="D45" s="2" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="E45" s="3">
+        <x:v>45907.6665474537</x:v>
+      </x:c>
+      <x:c r="F45" s="2" t="s"/>
+      <x:c r="G45" s="2" t="s"/>
+      <x:c r="H45" s="2" t="s"/>
+      <x:c r="I45" s="2" t="s"/>
+      <x:c r="J45" s="2" t="s"/>
+      <x:c r="K45" s="2" t="s"/>
+      <x:c r="L45" s="2" t="s"/>
+      <x:c r="M45" s="2" t="s"/>
+      <x:c r="N45" s="2" t="s"/>
+      <x:c r="O45" s="2" t="s"/>
+      <x:c r="P45" s="2" t="s"/>
+      <x:c r="Q45" s="2" t="s"/>
+      <x:c r="R45" s="2" t="s"/>
+      <x:c r="S45" s="2" t="s"/>
+      <x:c r="T45" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS102_Lecture-35283.xlsx
+++ b/downloaded_files/EECS102_Lecture-35283.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -33,15 +33,6 @@
     <x:t>Date</x:t>
   </x:si>
   <x:si>
-    <x:t>4250161</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ابراهيم حسن كامل احمد قاسم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ibrahim Hassan Kamel Ahmed Qasim</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240005</x:t>
   </x:si>
   <x:si>
@@ -69,15 +60,6 @@
     <x:t>Ahmed mamdouh ahmed mahmoud</x:t>
   </x:si>
   <x:si>
-    <x:t>1240024</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ادهم محمد شريف محمد صالح</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Adham Mohamed Sherif</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240033</x:t>
   </x:si>
   <x:si>
@@ -87,24 +69,6 @@
     <x:t>Basel Mahmoud Younes Ahmed Mouhamed</x:t>
   </x:si>
   <x:si>
-    <x:t>1240044</x:t>
-  </x:si>
-  <x:si>
-    <x:t>جنى مصطفى السيد احمد احمد الشرشابي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jana Mostafa Al-Sayed Ahmed Ahmed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240057</x:t>
-  </x:si>
-  <x:si>
-    <x:t>رشا حمدى احمد الدسوقى محمود ابوزيد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rasha Hamdy Ahmed El Desouky</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240307</x:t>
   </x:si>
   <x:si>
@@ -114,15 +78,6 @@
     <x:t>Rana Tarek Ahmed Shawky</x:t>
   </x:si>
   <x:si>
-    <x:t>4250173</x:t>
-  </x:si>
-  <x:si>
-    <x:t>زياد سعد محمد موسى احمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ziad Saad</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240224</x:t>
   </x:si>
   <x:si>
@@ -138,15 +93,6 @@
     <x:t xml:space="preserve">سعيد احمد سعيد خطاب محمد </x:t>
   </x:si>
   <x:si>
-    <x:t>1240069</x:t>
-  </x:si>
-  <x:si>
-    <x:t>سلمى الحسيني محمد عادل محمد الحسيني</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Salma Elhoseny mohammed Adel Elhoseny</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240074</x:t>
   </x:si>
   <x:si>
@@ -165,33 +111,6 @@
     <x:t>Shahd Waleed Sayed Mahmoud</x:t>
   </x:si>
   <x:si>
-    <x:t>4250178</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالرحمن سيد عبدالرحيم احمد عطية</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abdul Rahman Sayed Abdul Rahim Ahmed Attia</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240237</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالله أحمد محمد هشام مهنا</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abdallah Ahmed Mohammed Hesham</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4250180</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالله فريد عبدالله محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abdullah Farid Abdullah Mohammed</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240093</x:t>
   </x:si>
   <x:si>
@@ -228,15 +147,6 @@
     <x:t>Omar EL-syed Mohammed EL-kholy</x:t>
   </x:si>
   <x:si>
-    <x:t>1240242</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر عماد علي عمر يحيى علي عمر</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omar Emad Ali Omar Yahia Ali Omar</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240413</x:t>
   </x:si>
   <x:si>
@@ -264,15 +174,6 @@
     <x:t>Felopateer Hany Maher Eskander</x:t>
   </x:si>
   <x:si>
-    <x:t>1240181</x:t>
-  </x:si>
-  <x:si>
-    <x:t>كنزى محمد احمد عبد القادر عاشور</x:t>
-  </x:si>
-  <x:si>
-    <x:t>kenzy mohamed ahmed</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240130</x:t>
   </x:si>
   <x:si>
@@ -309,15 +210,6 @@
     <x:t>Mohammed Ali Zaher Mousa Elmeteni</x:t>
   </x:si>
   <x:si>
-    <x:t>1240364</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمود احمد محمد كمال الدين منصور  بلاسى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mahmoud Ahmed Mohammed Kamal Eldin</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240144</x:t>
   </x:si>
   <x:si>
@@ -354,15 +246,6 @@
     <x:t>Marwan Walid Gamal el din Zaki Abou Shebika</x:t>
   </x:si>
   <x:si>
-    <x:t>1240149</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مريم أحمد محمود سامى بشر</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mariam ahmed mahmoud samy bishr</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240154</x:t>
   </x:si>
   <x:si>
@@ -390,15 +273,6 @@
     <x:t>Yasmin Serag Mohamed Esmat</x:t>
   </x:si>
   <x:si>
-    <x:t>1240164</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يحيي وليد وفيق احمد حمدى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>yahia waleed wafeeq ahmed</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240173</x:t>
   </x:si>
   <x:si>
@@ -415,15 +289,6 @@
   </x:si>
   <x:si>
     <x:t>Youssef Atef Kodsy Sorour</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240175</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف محمد عبدالرحمن عبدالعزيز السيد احمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Yousef Mohamed Abdelrahman Abdelaziz Elsayed Ahmed</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -539,7 +404,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E45" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -839,7 +704,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T45"/>
+  <x:dimension ref="A1:T30"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -847,9 +712,9 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="34.420625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="50.930625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="30.050625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="43.890625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -930,7 +795,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45922.3696577546</x:v>
+        <x:v>45907.6661513542</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -962,7 +827,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45907.6661513542</x:v>
+        <x:v>45907.6649923264</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -994,7 +859,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.6649923264</x:v>
+        <x:v>45907.6658420486</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -1026,7 +891,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.6658420486</x:v>
+        <x:v>45907.665459456</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -1058,7 +923,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.6677021181</x:v>
+        <x:v>45907.6659533565</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1090,7 +955,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.665459456</x:v>
+        <x:v>45907.6651474537</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1118,11 +983,9 @@
       <x:c r="C8" s="2" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="D8" s="2" t="s">
-        <x:v>25</x:v>
-      </x:c>
+      <x:c r="D8" s="2" t="s"/>
       <x:c r="E8" s="3">
-        <x:v>45907.6666383449</x:v>
+        <x:v>45907.6648420486</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1145,16 +1008,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C9" s="2" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="C9" s="2" t="s">
+      <x:c r="D9" s="2" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="D9" s="2" t="s">
-        <x:v>28</x:v>
-      </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6662652778</x:v>
+        <x:v>45907.6655566319</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1177,16 +1040,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C10" s="2" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="C10" s="2" t="s">
+      <x:c r="D10" s="2" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="D10" s="2" t="s">
-        <x:v>31</x:v>
-      </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6659533565</x:v>
+        <x:v>45907.6655027431</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1209,16 +1072,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C11" s="2" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="C11" s="2" t="s">
+      <x:c r="D11" s="2" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="D11" s="2" t="s">
-        <x:v>34</x:v>
-      </x:c>
       <x:c r="E11" s="3">
-        <x:v>45923.4748417824</x:v>
+        <x:v>45907.6659865394</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1241,16 +1104,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B12" s="2" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="C12" s="2" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="C12" s="2" t="s">
+      <x:c r="D12" s="2" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="D12" s="2" t="s">
-        <x:v>37</x:v>
-      </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6651474537</x:v>
+        <x:v>45907.6648382292</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1273,14 +1136,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C13" s="2" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="C13" s="2" t="s">
+      <x:c r="D13" s="2" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="D13" s="2" t="s"/>
       <x:c r="E13" s="3">
-        <x:v>45907.6648420486</x:v>
+        <x:v>45907.6662009259</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1312,7 +1177,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45914.5370814815</x:v>
+        <x:v>45907.6650371528</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1344,7 +1209,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6655566319</x:v>
+        <x:v>45907.666205787</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1376,7 +1241,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6655027431</x:v>
+        <x:v>45907.665975463</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1408,7 +1273,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45921.6074469097</x:v>
+        <x:v>45907.6655778935</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1440,7 +1305,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45924.0106898495</x:v>
+        <x:v>45907.6649868866</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1472,7 +1337,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45921.614566169</x:v>
+        <x:v>45907.6659381134</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1504,7 +1369,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6659865394</x:v>
+        <x:v>45907.6651053241</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1536,7 +1401,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6648382292</x:v>
+        <x:v>45907.6652144676</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1568,7 +1433,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6662009259</x:v>
+        <x:v>45907.6658883449</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1600,7 +1465,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6650371528</x:v>
+        <x:v>45907.6650548611</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1632,7 +1497,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6662529745</x:v>
+        <x:v>45907.6646738426</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1664,7 +1529,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.666205787</x:v>
+        <x:v>45907.6646261227</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1696,7 +1561,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.665975463</x:v>
+        <x:v>45907.6658079861</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1728,7 +1593,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6655778935</x:v>
+        <x:v>45907.6658175579</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1760,7 +1625,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6670297106</x:v>
+        <x:v>45907.6652498495</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1792,7 +1657,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6649868866</x:v>
+        <x:v>45907.6660113079</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1824,7 +1689,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6659381134</x:v>
+        <x:v>45907.6650471065</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1842,486 +1707,6 @@
       <x:c r="S30" s="2" t="s"/>
       <x:c r="T30" s="2" t="s"/>
     </x:row>
-    <x:row r="31" spans="1:20">
-      <x:c r="A31" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B31" s="2" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="C31" s="2" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="D31" s="2" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="E31" s="3">
-        <x:v>45907.6651053241</x:v>
-      </x:c>
-      <x:c r="F31" s="2" t="s"/>
-      <x:c r="G31" s="2" t="s"/>
-      <x:c r="H31" s="2" t="s"/>
-      <x:c r="I31" s="2" t="s"/>
-      <x:c r="J31" s="2" t="s"/>
-      <x:c r="K31" s="2" t="s"/>
-      <x:c r="L31" s="2" t="s"/>
-      <x:c r="M31" s="2" t="s"/>
-      <x:c r="N31" s="2" t="s"/>
-      <x:c r="O31" s="2" t="s"/>
-      <x:c r="P31" s="2" t="s"/>
-      <x:c r="Q31" s="2" t="s"/>
-      <x:c r="R31" s="2" t="s"/>
-      <x:c r="S31" s="2" t="s"/>
-      <x:c r="T31" s="2" t="s"/>
-    </x:row>
-    <x:row r="32" spans="1:20">
-      <x:c r="A32" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B32" s="2" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="C32" s="2" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="D32" s="2" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="E32" s="3">
-        <x:v>45907.6652144676</x:v>
-      </x:c>
-      <x:c r="F32" s="2" t="s"/>
-      <x:c r="G32" s="2" t="s"/>
-      <x:c r="H32" s="2" t="s"/>
-      <x:c r="I32" s="2" t="s"/>
-      <x:c r="J32" s="2" t="s"/>
-      <x:c r="K32" s="2" t="s"/>
-      <x:c r="L32" s="2" t="s"/>
-      <x:c r="M32" s="2" t="s"/>
-      <x:c r="N32" s="2" t="s"/>
-      <x:c r="O32" s="2" t="s"/>
-      <x:c r="P32" s="2" t="s"/>
-      <x:c r="Q32" s="2" t="s"/>
-      <x:c r="R32" s="2" t="s"/>
-      <x:c r="S32" s="2" t="s"/>
-      <x:c r="T32" s="2" t="s"/>
-    </x:row>
-    <x:row r="33" spans="1:20">
-      <x:c r="A33" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B33" s="2" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="C33" s="2" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="D33" s="2" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="E33" s="3">
-        <x:v>45907.6673467245</x:v>
-      </x:c>
-      <x:c r="F33" s="2" t="s"/>
-      <x:c r="G33" s="2" t="s"/>
-      <x:c r="H33" s="2" t="s"/>
-      <x:c r="I33" s="2" t="s"/>
-      <x:c r="J33" s="2" t="s"/>
-      <x:c r="K33" s="2" t="s"/>
-      <x:c r="L33" s="2" t="s"/>
-      <x:c r="M33" s="2" t="s"/>
-      <x:c r="N33" s="2" t="s"/>
-      <x:c r="O33" s="2" t="s"/>
-      <x:c r="P33" s="2" t="s"/>
-      <x:c r="Q33" s="2" t="s"/>
-      <x:c r="R33" s="2" t="s"/>
-      <x:c r="S33" s="2" t="s"/>
-      <x:c r="T33" s="2" t="s"/>
-    </x:row>
-    <x:row r="34" spans="1:20">
-      <x:c r="A34" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B34" s="2" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="C34" s="2" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="D34" s="2" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="E34" s="3">
-        <x:v>45907.6658883449</x:v>
-      </x:c>
-      <x:c r="F34" s="2" t="s"/>
-      <x:c r="G34" s="2" t="s"/>
-      <x:c r="H34" s="2" t="s"/>
-      <x:c r="I34" s="2" t="s"/>
-      <x:c r="J34" s="2" t="s"/>
-      <x:c r="K34" s="2" t="s"/>
-      <x:c r="L34" s="2" t="s"/>
-      <x:c r="M34" s="2" t="s"/>
-      <x:c r="N34" s="2" t="s"/>
-      <x:c r="O34" s="2" t="s"/>
-      <x:c r="P34" s="2" t="s"/>
-      <x:c r="Q34" s="2" t="s"/>
-      <x:c r="R34" s="2" t="s"/>
-      <x:c r="S34" s="2" t="s"/>
-      <x:c r="T34" s="2" t="s"/>
-    </x:row>
-    <x:row r="35" spans="1:20">
-      <x:c r="A35" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B35" s="2" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="C35" s="2" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="D35" s="2" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="E35" s="3">
-        <x:v>45907.6650548611</x:v>
-      </x:c>
-      <x:c r="F35" s="2" t="s"/>
-      <x:c r="G35" s="2" t="s"/>
-      <x:c r="H35" s="2" t="s"/>
-      <x:c r="I35" s="2" t="s"/>
-      <x:c r="J35" s="2" t="s"/>
-      <x:c r="K35" s="2" t="s"/>
-      <x:c r="L35" s="2" t="s"/>
-      <x:c r="M35" s="2" t="s"/>
-      <x:c r="N35" s="2" t="s"/>
-      <x:c r="O35" s="2" t="s"/>
-      <x:c r="P35" s="2" t="s"/>
-      <x:c r="Q35" s="2" t="s"/>
-      <x:c r="R35" s="2" t="s"/>
-      <x:c r="S35" s="2" t="s"/>
-      <x:c r="T35" s="2" t="s"/>
-    </x:row>
-    <x:row r="36" spans="1:20">
-      <x:c r="A36" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B36" s="2" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="C36" s="2" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="D36" s="2" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="E36" s="3">
-        <x:v>45907.6646738426</x:v>
-      </x:c>
-      <x:c r="F36" s="2" t="s"/>
-      <x:c r="G36" s="2" t="s"/>
-      <x:c r="H36" s="2" t="s"/>
-      <x:c r="I36" s="2" t="s"/>
-      <x:c r="J36" s="2" t="s"/>
-      <x:c r="K36" s="2" t="s"/>
-      <x:c r="L36" s="2" t="s"/>
-      <x:c r="M36" s="2" t="s"/>
-      <x:c r="N36" s="2" t="s"/>
-      <x:c r="O36" s="2" t="s"/>
-      <x:c r="P36" s="2" t="s"/>
-      <x:c r="Q36" s="2" t="s"/>
-      <x:c r="R36" s="2" t="s"/>
-      <x:c r="S36" s="2" t="s"/>
-      <x:c r="T36" s="2" t="s"/>
-    </x:row>
-    <x:row r="37" spans="1:20">
-      <x:c r="A37" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B37" s="2" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="C37" s="2" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="D37" s="2" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="E37" s="3">
-        <x:v>45907.6646261227</x:v>
-      </x:c>
-      <x:c r="F37" s="2" t="s"/>
-      <x:c r="G37" s="2" t="s"/>
-      <x:c r="H37" s="2" t="s"/>
-      <x:c r="I37" s="2" t="s"/>
-      <x:c r="J37" s="2" t="s"/>
-      <x:c r="K37" s="2" t="s"/>
-      <x:c r="L37" s="2" t="s"/>
-      <x:c r="M37" s="2" t="s"/>
-      <x:c r="N37" s="2" t="s"/>
-      <x:c r="O37" s="2" t="s"/>
-      <x:c r="P37" s="2" t="s"/>
-      <x:c r="Q37" s="2" t="s"/>
-      <x:c r="R37" s="2" t="s"/>
-      <x:c r="S37" s="2" t="s"/>
-      <x:c r="T37" s="2" t="s"/>
-    </x:row>
-    <x:row r="38" spans="1:20">
-      <x:c r="A38" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B38" s="2" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="C38" s="2" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="D38" s="2" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="E38" s="3">
-        <x:v>45907.6669941782</x:v>
-      </x:c>
-      <x:c r="F38" s="2" t="s"/>
-      <x:c r="G38" s="2" t="s"/>
-      <x:c r="H38" s="2" t="s"/>
-      <x:c r="I38" s="2" t="s"/>
-      <x:c r="J38" s="2" t="s"/>
-      <x:c r="K38" s="2" t="s"/>
-      <x:c r="L38" s="2" t="s"/>
-      <x:c r="M38" s="2" t="s"/>
-      <x:c r="N38" s="2" t="s"/>
-      <x:c r="O38" s="2" t="s"/>
-      <x:c r="P38" s="2" t="s"/>
-      <x:c r="Q38" s="2" t="s"/>
-      <x:c r="R38" s="2" t="s"/>
-      <x:c r="S38" s="2" t="s"/>
-      <x:c r="T38" s="2" t="s"/>
-    </x:row>
-    <x:row r="39" spans="1:20">
-      <x:c r="A39" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B39" s="2" t="s">
-        <x:v>115</x:v>
-      </x:c>
-      <x:c r="C39" s="2" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="D39" s="2" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="E39" s="3">
-        <x:v>45907.6658079861</x:v>
-      </x:c>
-      <x:c r="F39" s="2" t="s"/>
-      <x:c r="G39" s="2" t="s"/>
-      <x:c r="H39" s="2" t="s"/>
-      <x:c r="I39" s="2" t="s"/>
-      <x:c r="J39" s="2" t="s"/>
-      <x:c r="K39" s="2" t="s"/>
-      <x:c r="L39" s="2" t="s"/>
-      <x:c r="M39" s="2" t="s"/>
-      <x:c r="N39" s="2" t="s"/>
-      <x:c r="O39" s="2" t="s"/>
-      <x:c r="P39" s="2" t="s"/>
-      <x:c r="Q39" s="2" t="s"/>
-      <x:c r="R39" s="2" t="s"/>
-      <x:c r="S39" s="2" t="s"/>
-      <x:c r="T39" s="2" t="s"/>
-    </x:row>
-    <x:row r="40" spans="1:20">
-      <x:c r="A40" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B40" s="2" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="C40" s="2" t="s">
-        <x:v>119</x:v>
-      </x:c>
-      <x:c r="D40" s="2" t="s">
-        <x:v>120</x:v>
-      </x:c>
-      <x:c r="E40" s="3">
-        <x:v>45907.6658175579</x:v>
-      </x:c>
-      <x:c r="F40" s="2" t="s"/>
-      <x:c r="G40" s="2" t="s"/>
-      <x:c r="H40" s="2" t="s"/>
-      <x:c r="I40" s="2" t="s"/>
-      <x:c r="J40" s="2" t="s"/>
-      <x:c r="K40" s="2" t="s"/>
-      <x:c r="L40" s="2" t="s"/>
-      <x:c r="M40" s="2" t="s"/>
-      <x:c r="N40" s="2" t="s"/>
-      <x:c r="O40" s="2" t="s"/>
-      <x:c r="P40" s="2" t="s"/>
-      <x:c r="Q40" s="2" t="s"/>
-      <x:c r="R40" s="2" t="s"/>
-      <x:c r="S40" s="2" t="s"/>
-      <x:c r="T40" s="2" t="s"/>
-    </x:row>
-    <x:row r="41" spans="1:20">
-      <x:c r="A41" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B41" s="2" t="s">
-        <x:v>121</x:v>
-      </x:c>
-      <x:c r="C41" s="2" t="s">
-        <x:v>122</x:v>
-      </x:c>
-      <x:c r="D41" s="2" t="s">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="E41" s="3">
-        <x:v>45907.6652498495</x:v>
-      </x:c>
-      <x:c r="F41" s="2" t="s"/>
-      <x:c r="G41" s="2" t="s"/>
-      <x:c r="H41" s="2" t="s"/>
-      <x:c r="I41" s="2" t="s"/>
-      <x:c r="J41" s="2" t="s"/>
-      <x:c r="K41" s="2" t="s"/>
-      <x:c r="L41" s="2" t="s"/>
-      <x:c r="M41" s="2" t="s"/>
-      <x:c r="N41" s="2" t="s"/>
-      <x:c r="O41" s="2" t="s"/>
-      <x:c r="P41" s="2" t="s"/>
-      <x:c r="Q41" s="2" t="s"/>
-      <x:c r="R41" s="2" t="s"/>
-      <x:c r="S41" s="2" t="s"/>
-      <x:c r="T41" s="2" t="s"/>
-    </x:row>
-    <x:row r="42" spans="1:20">
-      <x:c r="A42" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B42" s="2" t="s">
-        <x:v>124</x:v>
-      </x:c>
-      <x:c r="C42" s="2" t="s">
-        <x:v>125</x:v>
-      </x:c>
-      <x:c r="D42" s="2" t="s">
-        <x:v>126</x:v>
-      </x:c>
-      <x:c r="E42" s="3">
-        <x:v>45907.666621412</x:v>
-      </x:c>
-      <x:c r="F42" s="2" t="s"/>
-      <x:c r="G42" s="2" t="s"/>
-      <x:c r="H42" s="2" t="s"/>
-      <x:c r="I42" s="2" t="s"/>
-      <x:c r="J42" s="2" t="s"/>
-      <x:c r="K42" s="2" t="s"/>
-      <x:c r="L42" s="2" t="s"/>
-      <x:c r="M42" s="2" t="s"/>
-      <x:c r="N42" s="2" t="s"/>
-      <x:c r="O42" s="2" t="s"/>
-      <x:c r="P42" s="2" t="s"/>
-      <x:c r="Q42" s="2" t="s"/>
-      <x:c r="R42" s="2" t="s"/>
-      <x:c r="S42" s="2" t="s"/>
-      <x:c r="T42" s="2" t="s"/>
-    </x:row>
-    <x:row r="43" spans="1:20">
-      <x:c r="A43" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B43" s="2" t="s">
-        <x:v>127</x:v>
-      </x:c>
-      <x:c r="C43" s="2" t="s">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="D43" s="2" t="s">
-        <x:v>129</x:v>
-      </x:c>
-      <x:c r="E43" s="3">
-        <x:v>45907.6660113079</x:v>
-      </x:c>
-      <x:c r="F43" s="2" t="s"/>
-      <x:c r="G43" s="2" t="s"/>
-      <x:c r="H43" s="2" t="s"/>
-      <x:c r="I43" s="2" t="s"/>
-      <x:c r="J43" s="2" t="s"/>
-      <x:c r="K43" s="2" t="s"/>
-      <x:c r="L43" s="2" t="s"/>
-      <x:c r="M43" s="2" t="s"/>
-      <x:c r="N43" s="2" t="s"/>
-      <x:c r="O43" s="2" t="s"/>
-      <x:c r="P43" s="2" t="s"/>
-      <x:c r="Q43" s="2" t="s"/>
-      <x:c r="R43" s="2" t="s"/>
-      <x:c r="S43" s="2" t="s"/>
-      <x:c r="T43" s="2" t="s"/>
-    </x:row>
-    <x:row r="44" spans="1:20">
-      <x:c r="A44" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B44" s="2" t="s">
-        <x:v>130</x:v>
-      </x:c>
-      <x:c r="C44" s="2" t="s">
-        <x:v>131</x:v>
-      </x:c>
-      <x:c r="D44" s="2" t="s">
-        <x:v>132</x:v>
-      </x:c>
-      <x:c r="E44" s="3">
-        <x:v>45907.6650471065</x:v>
-      </x:c>
-      <x:c r="F44" s="2" t="s"/>
-      <x:c r="G44" s="2" t="s"/>
-      <x:c r="H44" s="2" t="s"/>
-      <x:c r="I44" s="2" t="s"/>
-      <x:c r="J44" s="2" t="s"/>
-      <x:c r="K44" s="2" t="s"/>
-      <x:c r="L44" s="2" t="s"/>
-      <x:c r="M44" s="2" t="s"/>
-      <x:c r="N44" s="2" t="s"/>
-      <x:c r="O44" s="2" t="s"/>
-      <x:c r="P44" s="2" t="s"/>
-      <x:c r="Q44" s="2" t="s"/>
-      <x:c r="R44" s="2" t="s"/>
-      <x:c r="S44" s="2" t="s"/>
-      <x:c r="T44" s="2" t="s"/>
-    </x:row>
-    <x:row r="45" spans="1:20">
-      <x:c r="A45" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B45" s="2" t="s">
-        <x:v>133</x:v>
-      </x:c>
-      <x:c r="C45" s="2" t="s">
-        <x:v>134</x:v>
-      </x:c>
-      <x:c r="D45" s="2" t="s">
-        <x:v>135</x:v>
-      </x:c>
-      <x:c r="E45" s="3">
-        <x:v>45907.6665474537</x:v>
-      </x:c>
-      <x:c r="F45" s="2" t="s"/>
-      <x:c r="G45" s="2" t="s"/>
-      <x:c r="H45" s="2" t="s"/>
-      <x:c r="I45" s="2" t="s"/>
-      <x:c r="J45" s="2" t="s"/>
-      <x:c r="K45" s="2" t="s"/>
-      <x:c r="L45" s="2" t="s"/>
-      <x:c r="M45" s="2" t="s"/>
-      <x:c r="N45" s="2" t="s"/>
-      <x:c r="O45" s="2" t="s"/>
-      <x:c r="P45" s="2" t="s"/>
-      <x:c r="Q45" s="2" t="s"/>
-      <x:c r="R45" s="2" t="s"/>
-      <x:c r="S45" s="2" t="s"/>
-      <x:c r="T45" s="2" t="s"/>
-    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
@@ -2334,9 +1719,6 @@
     <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Circuits-1 (EECS102) Location : [20104]20104-45-الجيزة الرئيسي Time : Monday(8:11)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
-  <x:rowBreaks count="1" manualBreakCount="1">
-    <x:brk id="35" max="1048576" man="1"/>
-  </x:rowBreaks>
   <x:tableParts count="1">
     <x:tablePart r:id="rId5"/>
   </x:tableParts>

--- a/downloaded_files/EECS102_Lecture-35283.xlsx
+++ b/downloaded_files/EECS102_Lecture-35283.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -118,15 +118,6 @@
   </x:si>
   <x:si>
     <x:t>ALI MOHAMED HABASHY TAWFIQ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240337</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر أحمد عبد الفتاح ابراهيم القرشي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omar Ahmed Abd ELFattah Ibrahim</x:t>
   </x:si>
   <x:si>
     <x:t>1240098</x:t>
@@ -404,7 +395,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -704,7 +695,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T30"/>
+  <x:dimension ref="A1:T29"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1113,7 +1104,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6648382292</x:v>
+        <x:v>45907.6662009259</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1145,7 +1136,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6662009259</x:v>
+        <x:v>45907.6650371528</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1177,7 +1168,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6650371528</x:v>
+        <x:v>45907.666205787</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1209,7 +1200,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.666205787</x:v>
+        <x:v>45907.665975463</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1241,7 +1232,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.665975463</x:v>
+        <x:v>45907.6655778935</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1273,7 +1264,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6655778935</x:v>
+        <x:v>45907.6649868866</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1305,7 +1296,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6649868866</x:v>
+        <x:v>45907.6659381134</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1337,7 +1328,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6659381134</x:v>
+        <x:v>45907.6651053241</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1369,7 +1360,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6651053241</x:v>
+        <x:v>45907.6652144676</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1401,7 +1392,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6652144676</x:v>
+        <x:v>45907.6658883449</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1433,7 +1424,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6658883449</x:v>
+        <x:v>45907.6650548611</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1465,7 +1456,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6650548611</x:v>
+        <x:v>45907.6646738426</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1497,7 +1488,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6646738426</x:v>
+        <x:v>45907.6646261227</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1529,7 +1520,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6646261227</x:v>
+        <x:v>45907.6658079861</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1561,7 +1552,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6658079861</x:v>
+        <x:v>45907.6658175579</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1593,7 +1584,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6658175579</x:v>
+        <x:v>45907.6652498495</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1625,7 +1616,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6652498495</x:v>
+        <x:v>45907.6660113079</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1657,7 +1648,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6660113079</x:v>
+        <x:v>45907.6650471065</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1674,38 +1665,6 @@
       <x:c r="R29" s="2" t="s"/>
       <x:c r="S29" s="2" t="s"/>
       <x:c r="T29" s="2" t="s"/>
-    </x:row>
-    <x:row r="30" spans="1:20">
-      <x:c r="A30" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B30" s="2" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="C30" s="2" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="D30" s="2" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="E30" s="3">
-        <x:v>45907.6650471065</x:v>
-      </x:c>
-      <x:c r="F30" s="2" t="s"/>
-      <x:c r="G30" s="2" t="s"/>
-      <x:c r="H30" s="2" t="s"/>
-      <x:c r="I30" s="2" t="s"/>
-      <x:c r="J30" s="2" t="s"/>
-      <x:c r="K30" s="2" t="s"/>
-      <x:c r="L30" s="2" t="s"/>
-      <x:c r="M30" s="2" t="s"/>
-      <x:c r="N30" s="2" t="s"/>
-      <x:c r="O30" s="2" t="s"/>
-      <x:c r="P30" s="2" t="s"/>
-      <x:c r="Q30" s="2" t="s"/>
-      <x:c r="R30" s="2" t="s"/>
-      <x:c r="S30" s="2" t="s"/>
-      <x:c r="T30" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS102_Lecture-35283.xlsx
+++ b/downloaded_files/EECS102_Lecture-35283.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -262,6 +262,15 @@
   </x:si>
   <x:si>
     <x:t>Yasmin Serag Mohamed Esmat</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240393</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف احمد سعيد عبدالفتاح احمد الليثي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef Ahmed Saeed Abdelfatah</x:t>
   </x:si>
   <x:si>
     <x:t>1240173</x:t>
@@ -395,7 +404,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -695,7 +704,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T29"/>
+  <x:dimension ref="A1:T30"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1616,7 +1625,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6660113079</x:v>
+        <x:v>45916.3985483449</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1648,7 +1657,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6650471065</x:v>
+        <x:v>45907.6660113079</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1665,6 +1674,38 @@
       <x:c r="R29" s="2" t="s"/>
       <x:c r="S29" s="2" t="s"/>
       <x:c r="T29" s="2" t="s"/>
+    </x:row>
+    <x:row r="30" spans="1:20">
+      <x:c r="A30" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B30" s="2" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="C30" s="2" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="D30" s="2" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="E30" s="3">
+        <x:v>45907.6650471065</x:v>
+      </x:c>
+      <x:c r="F30" s="2" t="s"/>
+      <x:c r="G30" s="2" t="s"/>
+      <x:c r="H30" s="2" t="s"/>
+      <x:c r="I30" s="2" t="s"/>
+      <x:c r="J30" s="2" t="s"/>
+      <x:c r="K30" s="2" t="s"/>
+      <x:c r="L30" s="2" t="s"/>
+      <x:c r="M30" s="2" t="s"/>
+      <x:c r="N30" s="2" t="s"/>
+      <x:c r="O30" s="2" t="s"/>
+      <x:c r="P30" s="2" t="s"/>
+      <x:c r="Q30" s="2" t="s"/>
+      <x:c r="R30" s="2" t="s"/>
+      <x:c r="S30" s="2" t="s"/>
+      <x:c r="T30" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
